--- a/MainTop/18.08.2025 имена остатки/остатки2.xlsx
+++ b/MainTop/18.08.2025 имена остатки/остатки2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\18.08.2025 имена остатки\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF01889-35A1-4F3A-BDD2-1B61F719C726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E65FB55-7B9D-4486-B3D9-C30EFE8A6294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>артикул</t>
   </si>
@@ -609,10 +609,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:C70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -741,7 +741,7 @@
         <v>31</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -757,7 +757,7 @@
         <v>7</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -890,15 +890,15 @@
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="C35">
         <v>2</v>
@@ -906,7 +906,7 @@
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C36">
         <v>2</v>
@@ -914,39 +914,39 @@
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="C40">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -954,7 +954,7 @@
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -962,7 +962,7 @@
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -970,7 +970,7 @@
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -978,7 +978,7 @@
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -986,7 +986,7 @@
     </row>
     <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -994,7 +994,7 @@
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -1002,7 +1002,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -1010,7 +1010,7 @@
     </row>
     <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -1018,7 +1018,7 @@
     </row>
     <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -1026,7 +1026,7 @@
     </row>
     <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -1034,7 +1034,7 @@
     </row>
     <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -1042,7 +1042,7 @@
     </row>
     <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -1058,7 +1058,7 @@
     </row>
     <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -1066,7 +1066,7 @@
     </row>
     <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -1082,7 +1082,7 @@
     </row>
     <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -1090,7 +1090,7 @@
     </row>
     <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -1098,7 +1098,7 @@
     </row>
     <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -1106,7 +1106,7 @@
     </row>
     <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -1114,7 +1114,7 @@
     </row>
     <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -1122,7 +1122,7 @@
     </row>
     <row r="63" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -1138,7 +1138,7 @@
     </row>
     <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -1154,7 +1154,7 @@
     </row>
     <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -1170,7 +1170,7 @@
     </row>
     <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -1178,25 +1178,9 @@
     </row>
     <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C72">
         <v>1</v>
       </c>
     </row>
